--- a/projecttwo/testdata/UserTestData.xlsx
+++ b/projecttwo/testdata/UserTestData.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsun/workspace/projecttwo/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D287FD8-F96F-8B49-B7C0-CA840D41E058}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6A1F23-FF1E-9A4F-B461-1A7DB874821A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5060" yWindow="3680" windowWidth="21260" windowHeight="13880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3220" yWindow="2180" windowWidth="21260" windowHeight="13880" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
-    <sheet name="filters" sheetId="2" r:id="rId2"/>
+    <sheet name="dup_email" sheetId="3" r:id="rId2"/>
+    <sheet name="dup_user" sheetId="4" r:id="rId3"/>
+    <sheet name="no_password" sheetId="5" r:id="rId4"/>
+    <sheet name="filters" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000"/>
   <extLst>
@@ -29,13 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>name</t>
   </si>
@@ -46,27 +43,9 @@
     <t>email</t>
   </si>
   <si>
-    <t>tompsd</t>
-  </si>
-  <si>
-    <t>davepsd</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>jamespsd</t>
-  </si>
-  <si>
     <t>tom@gmail.com</t>
   </si>
   <si>
-    <t>dave@hotmail.com</t>
-  </si>
-  <si>
-    <t>james@outlook.com</t>
-  </si>
-  <si>
     <t>userName</t>
   </si>
   <si>
@@ -98,6 +77,36 @@
   </si>
   <si>
     <t>2019-12-30</t>
+  </si>
+  <si>
+    <t>Tom1</t>
+  </si>
+  <si>
+    <t>new pass</t>
+  </si>
+  <si>
+    <t>Rick</t>
+  </si>
+  <si>
+    <t>tom1@gmail.com</t>
+  </si>
+  <si>
+    <t>tom2@gmail.com</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>new pass1</t>
+  </si>
+  <si>
+    <t>new pass2</t>
+  </si>
+  <si>
+    <t>Rob</t>
+  </si>
+  <si>
+    <t>rob@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -107,7 +116,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -131,8 +140,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,6 +167,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -159,11 +189,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -445,73 +477,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{672800AD-E9ED-5A42-AB8F-404020685242}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8438A2BF-FD6A-A542-8D73-7E95387FEEC7}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{672800AD-E9ED-5A42-AB8F-404020685242}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{B6DCAD5B-E24C-6541-9E31-3AC672101B5D}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{ABEF94E8-57D8-A544-A91A-8026D1130C6A}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{203B5591-7403-DF4B-8AC2-0AD14ADB0750}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E67F1B-C4E2-8240-B5F3-C48A6C472EA2}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{43CE6081-EFE7-0E43-9A1C-DA883183626A}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{BBF67069-D65D-104A-9D40-5E314D509FD2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADED9E93-5DD0-3944-9AED-4FDE94E9F058}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{CFF3644A-04D7-A94D-A2D1-CFD690EF167C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -526,42 +659,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/projecttwo/testdata/UserTestData.xlsx
+++ b/projecttwo/testdata/UserTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsun/workspace/projecttwo/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6A1F23-FF1E-9A4F-B461-1A7DB874821A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681C0A0F-C1C5-204D-A72D-F389439863BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="2180" windowWidth="21260" windowHeight="13880" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3220" yWindow="2180" windowWidth="21260" windowHeight="13880" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>name</t>
   </si>
@@ -88,25 +88,22 @@
     <t>Rick</t>
   </si>
   <si>
-    <t>tom1@gmail.com</t>
-  </si>
-  <si>
-    <t>tom2@gmail.com</t>
-  </si>
-  <si>
-    <t>Tim</t>
-  </si>
-  <si>
     <t>new pass1</t>
   </si>
   <si>
-    <t>new pass2</t>
-  </si>
-  <si>
     <t>Rob</t>
   </si>
   <si>
     <t>rob@hotmail.com</t>
+  </si>
+  <si>
+    <t>user@gmail.com</t>
+  </si>
+  <si>
+    <t>user_username</t>
+  </si>
+  <si>
+    <t>baduser@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -523,7 +520,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -547,7 +544,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -560,15 +557,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E67F1B-C4E2-8240-B5F3-C48A6C472EA2}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -584,30 +581,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{43CE6081-EFE7-0E43-9A1C-DA883183626A}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{BBF67069-D65D-104A-9D40-5E314D509FD2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -617,7 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADED9E93-5DD0-3944-9AED-4FDE94E9F058}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -626,10 +611,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
